--- a/data/trans_orig/P6715-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF92678-161A-4E74-A873-266C6BEEB357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1BFAA6-6B9A-4D99-B948-F84FF9D84697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B358118F-F28C-44B1-B5A2-80CFF99A40AF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5CFF54C-AF46-4A6F-9A32-F7BC4E6143A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="476">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>21,88%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -108,1378 +108,1363 @@
     <t>6,95%</t>
   </si>
   <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>17,71%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>30,71%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,28%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4274BE-4DFB-4A4B-A365-B7D35E18C919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B127DDB-90AF-4612-B756-1C2F69686D5E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2667,7 +2652,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2667,13 @@
         <v>4494</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2697,13 +2682,13 @@
         <v>5583</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2712,13 +2697,13 @@
         <v>10077</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,10 +2721,10 @@
         <v>67</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -2748,13 +2733,13 @@
         <v>41770</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -2763,13 +2748,13 @@
         <v>89460</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2769,13 @@
         <v>94984</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -2799,13 +2784,13 @@
         <v>62325</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -2814,13 +2799,13 @@
         <v>157309</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2820,13 @@
         <v>262473</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -2850,13 +2835,13 @@
         <v>160634</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -2865,13 +2850,13 @@
         <v>423106</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,7 +2912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2939,13 +2924,13 @@
         <v>1211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2954,13 +2939,13 @@
         <v>2254</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2969,13 +2954,13 @@
         <v>3465</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2975,13 @@
         <v>3964</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3005,13 +2990,13 @@
         <v>4730</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3020,13 +3005,13 @@
         <v>8694</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3026,13 @@
         <v>39683</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3056,13 +3041,13 @@
         <v>33842</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -3071,13 +3056,13 @@
         <v>73525</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3077,13 @@
         <v>50468</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3107,13 +3092,13 @@
         <v>47693</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3122,13 +3107,13 @@
         <v>98160</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3128,13 @@
         <v>226111</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -3158,13 +3143,13 @@
         <v>125823</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>319</v>
@@ -3173,13 +3158,13 @@
         <v>351934</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3220,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3247,13 +3232,13 @@
         <v>897</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3262,13 +3247,13 @@
         <v>3922</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3277,13 +3262,13 @@
         <v>4819</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3283,13 @@
         <v>11543</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3313,13 +3298,13 @@
         <v>8839</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3328,13 +3313,13 @@
         <v>20381</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3334,13 @@
         <v>54949</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -3364,13 +3349,13 @@
         <v>49772</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -3379,13 +3364,13 @@
         <v>104721</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3385,13 @@
         <v>106276</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -3415,13 +3400,13 @@
         <v>64218</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="M31" s="7">
         <v>170</v>
@@ -3430,13 +3415,13 @@
         <v>170494</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3436,13 @@
         <v>245023</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>162</v>
@@ -3466,13 +3451,13 @@
         <v>171856</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>395</v>
@@ -3481,13 +3466,13 @@
         <v>416879</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3540,13 @@
         <v>6250</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -3570,13 +3555,13 @@
         <v>6176</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3585,10 +3570,10 @@
         <v>12425</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>57</v>
@@ -3606,13 +3591,13 @@
         <v>21970</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -3621,13 +3606,13 @@
         <v>21279</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="M35" s="7">
         <v>41</v>
@@ -3636,13 +3621,13 @@
         <v>43249</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3642,13 @@
         <v>163687</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>131</v>
@@ -3672,13 +3657,13 @@
         <v>141189</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>233</v>
+        <v>72</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>286</v>
@@ -3687,13 +3672,13 @@
         <v>304876</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3693,13 @@
         <v>313553</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>203</v>
@@ -3723,13 +3708,13 @@
         <v>215608</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>502</v>
@@ -3738,13 +3723,13 @@
         <v>529161</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3744,13 @@
         <v>914292</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>513</v>
@@ -3774,13 +3759,13 @@
         <v>560283</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M38" s="7">
         <v>1365</v>
@@ -3789,13 +3774,13 @@
         <v>1474576</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,7 +3836,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39ED57-0763-403D-93CD-276682FE6014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5745480-47DE-4ACD-ADF6-1D19F8E2DA7F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,13 +3981,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4011,13 +3996,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4026,13 +4011,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4068,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4083,7 +4068,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4083,13 @@
         <v>3019</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4113,13 +4098,13 @@
         <v>1843</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4128,13 +4113,13 @@
         <v>4863</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4134,13 @@
         <v>12721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4164,13 +4149,13 @@
         <v>12691</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4179,13 +4164,13 @@
         <v>25412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4185,13 @@
         <v>27172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4215,13 +4200,13 @@
         <v>14389</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>41</v>
@@ -4230,13 +4215,13 @@
         <v>41561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4289,13 @@
         <v>3162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4325,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4334,13 +4319,13 @@
         <v>3162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4340,13 @@
         <v>9196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4370,13 +4355,13 @@
         <v>8920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -4385,13 +4370,13 @@
         <v>18116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4391,13 @@
         <v>32882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -4421,13 +4406,13 @@
         <v>22407</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -4436,13 +4421,13 @@
         <v>55289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4442,13 @@
         <v>59822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4472,13 +4457,13 @@
         <v>44565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4487,13 +4472,13 @@
         <v>104387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4493,13 @@
         <v>94207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4523,13 +4508,13 @@
         <v>61585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -4538,13 +4523,13 @@
         <v>155792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4597,13 @@
         <v>6053</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4627,13 +4612,13 @@
         <v>928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4642,13 +4627,13 @@
         <v>6981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4648,13 @@
         <v>14519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4678,13 +4663,13 @@
         <v>4481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -4693,13 +4678,13 @@
         <v>19000</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4699,13 @@
         <v>47317</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -4729,13 +4714,13 @@
         <v>36456</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -4744,13 +4729,13 @@
         <v>83773</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4750,13 @@
         <v>116264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4780,13 +4765,13 @@
         <v>83452</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -4795,13 +4780,13 @@
         <v>199716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4801,13 @@
         <v>229888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -4831,13 +4816,13 @@
         <v>148454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>346</v>
@@ -4846,13 +4831,13 @@
         <v>378342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4893,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4920,13 +4905,13 @@
         <v>10003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4935,13 +4920,13 @@
         <v>6012</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4950,13 +4935,13 @@
         <v>16015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4956,13 @@
         <v>25152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4986,13 +4971,13 @@
         <v>18638</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -5001,13 +4986,13 @@
         <v>43791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,10 +5010,10 @@
         <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -5037,13 +5022,13 @@
         <v>63627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -5052,13 +5037,13 @@
         <v>155189</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5058,13 @@
         <v>104708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5088,13 +5073,13 @@
         <v>74312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -5103,13 +5088,13 @@
         <v>179020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5109,13 @@
         <v>132395</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -5139,13 +5124,13 @@
         <v>107969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -5154,13 +5139,13 @@
         <v>240364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,7 +5201,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5231,10 +5216,10 @@
         <v>59</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>408</v>
+        <v>98</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -5243,13 +5228,13 @@
         <v>8352</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>293</v>
+        <v>404</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5258,13 +5243,13 @@
         <v>11454</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5264,13 @@
         <v>5905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5294,13 +5279,13 @@
         <v>4042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>411</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>417</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -5309,13 +5294,13 @@
         <v>9947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>418</v>
+        <v>224</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>420</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5315,13 @@
         <v>39461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>421</v>
+        <v>227</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -5345,13 +5330,13 @@
         <v>35216</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -5360,13 +5345,13 @@
         <v>74677</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5366,13 @@
         <v>108933</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H31" s="7">
         <v>68</v>
@@ -5396,13 +5381,13 @@
         <v>73393</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M31" s="7">
         <v>176</v>
@@ -5411,13 +5396,13 @@
         <v>182326</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5417,13 @@
         <v>243769</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H32" s="7">
         <v>194</v>
@@ -5447,13 +5432,13 @@
         <v>204471</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M32" s="7">
         <v>433</v>
@@ -5462,13 +5447,13 @@
         <v>448240</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5521,13 @@
         <v>23429</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>138</v>
+        <v>439</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -5551,13 +5536,13 @@
         <v>16260</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>447</v>
+        <v>182</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>448</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -5566,13 +5551,13 @@
         <v>39689</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5572,13 @@
         <v>54773</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -5605,10 +5590,10 @@
         <v>13</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>455</v>
+        <v>183</v>
       </c>
       <c r="M35" s="7">
         <v>85</v>
@@ -5617,13 +5602,13 @@
         <v>90854</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>141</v>
+        <v>448</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5623,13 @@
         <v>214240</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H36" s="7">
         <v>156</v>
@@ -5653,13 +5638,13 @@
         <v>159550</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>24</v>
+        <v>455</v>
       </c>
       <c r="M36" s="7">
         <v>348</v>
@@ -5668,13 +5653,13 @@
         <v>373791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5674,13 @@
         <v>402449</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -5704,13 +5689,13 @@
         <v>288412</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M37" s="7">
         <v>668</v>
@@ -5719,13 +5704,13 @@
         <v>690861</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5725,13 @@
         <v>727431</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H38" s="7">
         <v>518</v>
@@ -5755,13 +5740,13 @@
         <v>536868</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M38" s="7">
         <v>1198</v>
@@ -5770,13 +5755,13 @@
         <v>1264299</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,7 +5817,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C1BFAA6-6B9A-4D99-B948-F84FF9D84697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C10ED1-35C4-4B8D-854E-FE4BB39C5147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5CFF54C-AF46-4A6F-9A32-F7BC4E6143A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83293B31-5450-42D9-A8B4-A8DEE5DF9D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="488">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -93,13 +93,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,88%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>7,14%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -108,19 +108,19 @@
     <t>6,95%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -129,1324 +129,1360 @@
     <t>27,68%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>12,32%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>53,08%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>4,51%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>30,71%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>51,76%</t>
@@ -1455,16 +1491,16 @@
     <t>48,74%</t>
   </si>
   <si>
-    <t>54,99%</t>
+    <t>54,96%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
 </sst>
 </file>
@@ -1876,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B127DDB-90AF-4612-B756-1C2F69686D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA26FE66-9DD9-4F14-BE99-2FB6A3A795FC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2341,10 +2377,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2395,13 @@
         <v>1970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2374,13 +2410,13 @@
         <v>1044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2389,13 +2425,13 @@
         <v>3014</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2446,13 @@
         <v>17770</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -2425,13 +2461,13 @@
         <v>15805</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -2440,13 +2476,13 @@
         <v>33575</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2497,13 @@
         <v>47506</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2476,13 +2512,13 @@
         <v>34250</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -2491,13 +2527,13 @@
         <v>81756</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2548,13 @@
         <v>146867</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -2527,13 +2563,13 @@
         <v>84990</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -2542,13 +2578,13 @@
         <v>231857</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2616,13 +2652,13 @@
         <v>1051</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2637,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2646,7 +2682,7 @@
         <v>1051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -2667,13 +2703,13 @@
         <v>4494</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2682,13 +2718,13 @@
         <v>5583</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2697,13 +2733,13 @@
         <v>10077</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2754,13 @@
         <v>47690</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -2733,13 +2769,13 @@
         <v>41770</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -2748,13 +2784,13 @@
         <v>89460</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2805,13 @@
         <v>94984</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -2784,13 +2820,13 @@
         <v>62325</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -2799,13 +2835,13 @@
         <v>157309</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2856,13 @@
         <v>262473</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -2835,13 +2871,13 @@
         <v>160634</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -2850,13 +2886,13 @@
         <v>423106</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2948,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2924,13 +2960,13 @@
         <v>1211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2939,13 +2975,13 @@
         <v>2254</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2954,13 +2990,13 @@
         <v>3465</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +3011,13 @@
         <v>3964</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -2990,13 +3026,13 @@
         <v>4730</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3005,13 +3041,13 @@
         <v>8694</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3062,13 @@
         <v>39683</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3041,13 +3077,13 @@
         <v>33842</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -3056,13 +3092,13 @@
         <v>73525</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3113,13 @@
         <v>50468</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3092,13 +3128,13 @@
         <v>47693</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3107,13 +3143,13 @@
         <v>98160</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3164,13 @@
         <v>226111</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -3143,13 +3179,13 @@
         <v>125823</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>319</v>
@@ -3158,13 +3194,13 @@
         <v>351934</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,7 +3256,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3232,13 +3268,13 @@
         <v>897</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3247,13 +3283,13 @@
         <v>3922</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3262,13 +3298,13 @@
         <v>4819</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3319,13 @@
         <v>11543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3298,13 +3334,13 @@
         <v>8839</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3313,13 +3349,13 @@
         <v>20381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3370,13 @@
         <v>54949</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -3349,13 +3385,13 @@
         <v>49772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -3364,13 +3400,13 @@
         <v>104721</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3421,13 @@
         <v>106276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -3400,13 +3436,13 @@
         <v>64218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>170</v>
@@ -3415,13 +3451,13 @@
         <v>170494</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3472,13 @@
         <v>245023</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>162</v>
@@ -3451,13 +3487,13 @@
         <v>171856</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>395</v>
@@ -3466,13 +3502,13 @@
         <v>416879</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3576,13 @@
         <v>6250</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -3555,13 +3591,13 @@
         <v>6176</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3570,13 +3606,13 @@
         <v>12425</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3627,13 @@
         <v>21970</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -3606,13 +3642,13 @@
         <v>21279</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>41</v>
@@ -3621,10 +3657,10 @@
         <v>43249</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>225</v>
@@ -3660,10 +3696,10 @@
         <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>286</v>
@@ -3672,13 +3708,13 @@
         <v>304876</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3729,13 @@
         <v>313553</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H37" s="7">
         <v>203</v>
@@ -3708,13 +3744,13 @@
         <v>215608</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>502</v>
@@ -3723,13 +3759,13 @@
         <v>529161</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3780,13 @@
         <v>914292</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>513</v>
@@ -3759,13 +3795,13 @@
         <v>560283</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>1365</v>
@@ -3774,13 +3810,13 @@
         <v>1474576</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3872,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5745480-47DE-4ACD-ADF6-1D19F8E2DA7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3F75CC-DE83-4999-A0E5-E6A22A1B908A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,13 +4017,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3996,13 +4032,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4011,13 +4047,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4053,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4068,7 +4104,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4119,13 @@
         <v>3019</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4098,13 +4134,13 @@
         <v>1843</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4113,13 +4149,13 @@
         <v>4863</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4170,13 @@
         <v>12721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4149,13 +4185,13 @@
         <v>12691</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4164,13 +4200,13 @@
         <v>25412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4221,13 @@
         <v>27172</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4200,13 +4236,13 @@
         <v>14389</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>41</v>
@@ -4215,13 +4251,13 @@
         <v>41561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4325,13 @@
         <v>3162</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4310,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4319,13 +4355,13 @@
         <v>3162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4376,13 @@
         <v>9196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -4355,13 +4391,13 @@
         <v>8920</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -4370,13 +4406,13 @@
         <v>18116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4427,13 @@
         <v>32882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -4406,13 +4442,13 @@
         <v>22407</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -4421,13 +4457,13 @@
         <v>55289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4478,13 @@
         <v>59822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4457,13 +4493,13 @@
         <v>44565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4472,13 +4508,13 @@
         <v>104387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4529,13 @@
         <v>94207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4508,13 +4544,13 @@
         <v>61585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -4523,13 +4559,13 @@
         <v>155792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4621,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4597,13 +4633,13 @@
         <v>6053</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4612,13 +4648,13 @@
         <v>928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4627,13 +4663,13 @@
         <v>6981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4684,13 @@
         <v>14519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4663,13 +4699,13 @@
         <v>4481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -4678,13 +4714,13 @@
         <v>19000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4735,13 @@
         <v>47317</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -4714,13 +4750,13 @@
         <v>36456</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -4729,13 +4765,13 @@
         <v>83773</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4786,13 @@
         <v>116264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4765,13 +4801,13 @@
         <v>83452</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -4780,13 +4816,13 @@
         <v>199716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4837,13 @@
         <v>229888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -4816,13 +4852,13 @@
         <v>148454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>346</v>
@@ -4831,13 +4867,13 @@
         <v>378342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4905,10 +4941,10 @@
         <v>10003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>366</v>
@@ -4926,7 +4962,7 @@
         <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4935,13 +4971,13 @@
         <v>16015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4992,13 @@
         <v>25152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4971,13 +5007,13 @@
         <v>18638</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4986,13 +5022,13 @@
         <v>43791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5043,13 @@
         <v>91561</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -5022,13 +5058,13 @@
         <v>63627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -5037,13 +5073,13 @@
         <v>155189</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5094,13 @@
         <v>104708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5073,13 +5109,13 @@
         <v>74312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -5088,13 +5124,13 @@
         <v>179020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5145,13 @@
         <v>132395</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -5124,13 +5160,13 @@
         <v>107969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -5139,13 +5175,13 @@
         <v>240364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,7 +5237,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5213,13 +5249,13 @@
         <v>3103</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>98</v>
+        <v>406</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -5228,13 +5264,13 @@
         <v>8352</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>405</v>
+        <v>94</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5243,13 +5279,13 @@
         <v>11454</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5300,13 @@
         <v>5905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>217</v>
+        <v>412</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5279,13 +5315,13 @@
         <v>4042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -5294,13 +5330,13 @@
         <v>9947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>224</v>
+        <v>417</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5351,13 @@
         <v>39461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -5330,13 +5366,13 @@
         <v>35216</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -5345,13 +5381,13 @@
         <v>74677</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5402,13 @@
         <v>108933</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H31" s="7">
         <v>68</v>
@@ -5381,13 +5417,13 @@
         <v>73393</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M31" s="7">
         <v>176</v>
@@ -5396,13 +5432,13 @@
         <v>182326</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5453,13 @@
         <v>243769</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H32" s="7">
         <v>194</v>
@@ -5432,13 +5468,13 @@
         <v>204471</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M32" s="7">
         <v>433</v>
@@ -5447,13 +5483,13 @@
         <v>448240</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5557,13 @@
         <v>23429</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -5536,13 +5572,13 @@
         <v>16260</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -5551,13 +5587,13 @@
         <v>39689</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5608,13 @@
         <v>54773</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>184</v>
+        <v>455</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -5590,10 +5626,10 @@
         <v>13</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>458</v>
       </c>
       <c r="M35" s="7">
         <v>85</v>
@@ -5602,13 +5638,13 @@
         <v>90854</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>184</v>
+        <v>416</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5659,13 @@
         <v>214240</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="H36" s="7">
         <v>156</v>
@@ -5638,13 +5674,13 @@
         <v>159550</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M36" s="7">
         <v>348</v>
@@ -5653,13 +5689,13 @@
         <v>373791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5710,13 @@
         <v>402449</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -5689,13 +5725,13 @@
         <v>288412</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="M37" s="7">
         <v>668</v>
@@ -5704,13 +5740,13 @@
         <v>690861</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5761,13 @@
         <v>727431</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="H38" s="7">
         <v>518</v>
@@ -5740,13 +5776,13 @@
         <v>536868</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M38" s="7">
         <v>1198</v>
@@ -5755,13 +5791,13 @@
         <v>1264299</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,7 +5853,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C10ED1-35C4-4B8D-854E-FE4BB39C5147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED4BDB6-38E8-46DE-88F2-920CEF01D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83293B31-5450-42D9-A8B4-A8DEE5DF9D2A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11A41C98-AEAB-454D-A589-77E5CC225110}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="481">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>21,71%</t>
+    <t>21,77%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,14%</t>
+    <t>7,8%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -108,1399 +108,1378 @@
     <t>6,95%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>27,68%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>49,28%</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA26FE66-9DD9-4F14-BE99-2FB6A3A795FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1805125F-DD8C-4F6D-BC96-B0955587DAE5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2377,10 +2356,10 @@
         <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2374,13 @@
         <v>1970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2410,13 +2389,13 @@
         <v>1044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2425,13 +2404,13 @@
         <v>3014</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2425,13 @@
         <v>17770</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -2461,13 +2440,13 @@
         <v>15805</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -2476,13 +2455,13 @@
         <v>33575</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2476,13 @@
         <v>47506</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2512,13 +2491,13 @@
         <v>34250</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -2527,13 +2506,13 @@
         <v>81756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2527,13 @@
         <v>146867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -2563,13 +2542,13 @@
         <v>84990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -2578,13 +2557,13 @@
         <v>231857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,7 +2619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2652,13 +2631,13 @@
         <v>1051</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2673,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2682,13 +2661,13 @@
         <v>1051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2682,13 @@
         <v>4494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2718,13 +2697,13 @@
         <v>5583</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2733,13 +2712,13 @@
         <v>10077</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2733,13 @@
         <v>47690</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -2769,13 +2748,13 @@
         <v>41770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>85</v>
@@ -2784,13 +2763,13 @@
         <v>89460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2784,13 @@
         <v>94984</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -2820,13 +2799,13 @@
         <v>62325</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>144</v>
@@ -2835,13 +2814,13 @@
         <v>157309</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2835,13 @@
         <v>262473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>143</v>
@@ -2871,13 +2850,13 @@
         <v>160634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>384</v>
@@ -2886,13 +2865,13 @@
         <v>423106</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2927,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2960,13 +2939,13 @@
         <v>1211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2975,13 +2954,13 @@
         <v>2254</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2990,13 +2969,13 @@
         <v>3465</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2990,13 @@
         <v>3964</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3026,13 +3005,13 @@
         <v>4730</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -3041,13 +3020,13 @@
         <v>8694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3041,13 @@
         <v>39683</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3077,13 +3056,13 @@
         <v>33842</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -3092,13 +3071,13 @@
         <v>73525</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3092,13 @@
         <v>50468</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3128,13 +3107,13 @@
         <v>47693</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -3143,13 +3122,13 @@
         <v>98160</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3143,13 @@
         <v>226111</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>115</v>
@@ -3179,13 +3158,13 @@
         <v>125823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>319</v>
@@ -3194,13 +3173,13 @@
         <v>351934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3235,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3247,13 @@
         <v>897</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3283,13 +3262,13 @@
         <v>3922</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3298,13 +3277,13 @@
         <v>4819</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3298,13 @@
         <v>11543</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -3334,13 +3313,13 @@
         <v>8839</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3349,13 +3328,13 @@
         <v>20381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3349,13 @@
         <v>54949</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -3385,13 +3364,13 @@
         <v>49772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -3400,13 +3379,13 @@
         <v>104721</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3400,13 @@
         <v>106276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -3436,13 +3415,13 @@
         <v>64218</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>170</v>
@@ -3451,13 +3430,13 @@
         <v>170494</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3451,13 @@
         <v>245023</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>162</v>
@@ -3487,13 +3466,13 @@
         <v>171856</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>395</v>
@@ -3502,13 +3481,13 @@
         <v>416879</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3555,13 @@
         <v>6250</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -3591,13 +3570,13 @@
         <v>6176</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3606,13 +3585,13 @@
         <v>12425</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3606,13 @@
         <v>21970</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -3642,13 +3621,13 @@
         <v>21279</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>41</v>
@@ -3657,13 +3636,13 @@
         <v>43249</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3657,13 @@
         <v>163687</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>131</v>
@@ -3693,13 +3672,13 @@
         <v>141189</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>286</v>
@@ -3708,13 +3687,13 @@
         <v>304876</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3708,13 @@
         <v>313553</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H37" s="7">
         <v>203</v>
@@ -3744,13 +3723,13 @@
         <v>215608</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>502</v>
@@ -3759,13 +3738,13 @@
         <v>529161</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3759,13 @@
         <v>914292</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H38" s="7">
         <v>513</v>
@@ -3795,13 +3774,13 @@
         <v>560283</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M38" s="7">
         <v>1365</v>
@@ -3810,13 +3789,13 @@
         <v>1474576</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3851,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3F75CC-DE83-4999-A0E5-E6A22A1B908A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10A633C-FC19-4FD6-AA36-68E27FD9A1C9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +3996,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4032,13 +4011,13 @@
         <v>968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4047,13 +4026,13 @@
         <v>2076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4089,7 +4068,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4104,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4098,13 @@
         <v>3019</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4134,13 +4113,13 @@
         <v>1843</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4149,13 +4128,13 @@
         <v>4863</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,7 +4149,7 @@
         <v>12721</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>272</v>
@@ -4331,7 +4310,7 @@
         <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4346,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4355,10 +4334,10 @@
         <v>3162</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>293</v>
@@ -4409,10 +4388,10 @@
         <v>300</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4406,13 @@
         <v>32882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -4442,13 +4421,13 @@
         <v>22407</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -4457,13 +4436,13 @@
         <v>55289</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>308</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4457,13 @@
         <v>59822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4493,13 +4472,13 @@
         <v>44565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4508,13 +4487,13 @@
         <v>104387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4508,13 @@
         <v>94207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -4544,13 +4523,13 @@
         <v>61585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -4559,13 +4538,13 @@
         <v>155792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,7 +4600,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4633,13 +4612,13 @@
         <v>6053</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4648,13 +4627,13 @@
         <v>928</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4663,13 +4642,13 @@
         <v>6981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4663,13 @@
         <v>14519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4699,13 +4678,13 @@
         <v>4481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -4714,13 +4693,13 @@
         <v>19000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4714,13 @@
         <v>47317</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -4750,13 +4729,13 @@
         <v>36456</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -4765,13 +4744,13 @@
         <v>83773</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4765,13 @@
         <v>116264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4801,13 +4780,13 @@
         <v>83452</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -4816,13 +4795,13 @@
         <v>199716</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4816,13 @@
         <v>229888</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -4852,13 +4831,13 @@
         <v>148454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>346</v>
@@ -4867,13 +4846,13 @@
         <v>378342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4941,13 +4920,13 @@
         <v>10003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4956,13 +4935,13 @@
         <v>6012</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4971,13 +4950,13 @@
         <v>16015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4971,13 @@
         <v>25152</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -5007,13 +4986,13 @@
         <v>18638</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -5022,13 +5001,13 @@
         <v>43791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5022,13 @@
         <v>91561</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -5058,13 +5037,13 @@
         <v>63627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M24" s="7">
         <v>140</v>
@@ -5073,13 +5052,13 @@
         <v>155189</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5073,13 @@
         <v>104708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -5109,13 +5088,13 @@
         <v>74312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -5124,13 +5103,13 @@
         <v>179020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5124,13 @@
         <v>132395</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -5160,13 +5139,13 @@
         <v>107969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -5175,13 +5154,13 @@
         <v>240364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,7 +5216,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5249,13 +5228,13 @@
         <v>3103</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -5264,13 +5243,13 @@
         <v>8352</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>94</v>
+        <v>409</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5279,13 +5258,13 @@
         <v>11454</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5279,13 @@
         <v>5905</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5315,13 +5294,13 @@
         <v>4042</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -5330,13 +5309,13 @@
         <v>9947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5330,13 @@
         <v>39461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -5366,13 +5345,13 @@
         <v>35216</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -5381,13 +5360,13 @@
         <v>74677</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,7 +5381,7 @@
         <v>108933</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>429</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>430</v>
@@ -5557,13 +5536,13 @@
         <v>23429</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>447</v>
+        <v>138</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>448</v>
+        <v>15</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -5572,13 +5551,13 @@
         <v>16260</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>23</v>
+        <v>447</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -5587,13 +5566,13 @@
         <v>39689</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5587,13 @@
         <v>54773</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -5626,10 +5605,10 @@
         <v>13</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M35" s="7">
         <v>85</v>
@@ -5638,13 +5617,13 @@
         <v>90854</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>459</v>
+        <v>141</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>416</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5638,13 @@
         <v>214240</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H36" s="7">
         <v>156</v>
@@ -5674,13 +5653,13 @@
         <v>159550</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>466</v>
+        <v>24</v>
       </c>
       <c r="M36" s="7">
         <v>348</v>
@@ -5689,13 +5668,13 @@
         <v>373791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5689,13 @@
         <v>402449</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H37" s="7">
         <v>287</v>
@@ -5725,13 +5704,13 @@
         <v>288412</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M37" s="7">
         <v>668</v>
@@ -5740,13 +5719,13 @@
         <v>690861</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5740,13 @@
         <v>727431</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H38" s="7">
         <v>518</v>
@@ -5776,13 +5755,13 @@
         <v>536868</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M38" s="7">
         <v>1198</v>
@@ -5791,13 +5770,13 @@
         <v>1264299</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>487</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,7 +5832,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
